--- a/JupyterNotebook/Curso3/Índice clases.xlsx
+++ b/JupyterNotebook/Curso3/Índice clases.xlsx
@@ -11,11 +11,164 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="147">
+  <si>
+    <t>Carpeta contenedora</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1BF1gsNnTAoKsCm3IeGDSXlq7GEJD_63e</t>
+  </si>
+  <si>
+    <t>Clase 1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Qk9m-kGxmjxTPfGockR74ZU5VgZwfcd1/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Data profiler</t>
+  </si>
+  <si>
+    <t>Threading vs paralelismo</t>
+  </si>
+  <si>
+    <t>Opciones desde TDA</t>
+  </si>
+  <si>
+    <t>Intraday 1 min sigma (iex cloud)</t>
+  </si>
+  <si>
+    <t>Join ejemplo</t>
+  </si>
+  <si>
+    <t>Tipos de bots</t>
+  </si>
+  <si>
+    <t>Diagrama de flujo con lucid app</t>
+  </si>
+  <si>
+    <t>Cont tipos de bots</t>
+  </si>
+  <si>
+    <t>Clase 2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HTXTQo6LspB2Dwy8wXR5bkZpN3wzIx78/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>bot</t>
+  </si>
+  <si>
+    <t>Api iol</t>
+  </si>
+  <si>
+    <t>Market Data</t>
+  </si>
+  <si>
+    <t>Listado de FCI</t>
+  </si>
+  <si>
+    <t>Consulta de titulos</t>
+  </si>
+  <si>
+    <t>Instrumentos por pais</t>
+  </si>
+  <si>
+    <t>Paneles de precio</t>
+  </si>
+  <si>
+    <t>Precio de un instrumento</t>
+  </si>
+  <si>
+    <t>Opciones de un determinado subyacente</t>
+  </si>
+  <si>
+    <t>Mi cuenta</t>
+  </si>
+  <si>
+    <t>Endpoints de ruteo</t>
+  </si>
+  <si>
+    <t>Clase 3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Qt0N2YovGSS8piW9YAZcWHORCGOgDSLZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Que es una api</t>
+  </si>
+  <si>
+    <t>Que es rest</t>
+  </si>
+  <si>
+    <t>Api Matba-Rofex</t>
+  </si>
+  <si>
+    <t>into a git y github</t>
+  </si>
+  <si>
+    <t>Datos principales de la cuenta</t>
+  </si>
+  <si>
+    <t>Documentacion de la api de rofex</t>
+  </si>
+  <si>
+    <t>Metodo de autenticacion rofex</t>
+  </si>
+  <si>
+    <t>solicitud de segmentos, instrumentos y detalles</t>
+  </si>
+  <si>
+    <t>Ruteo de ordenes</t>
+  </si>
+  <si>
+    <t>Devolver todas las posiciones ejecutadas</t>
+  </si>
+  <si>
+    <t>Websocket</t>
+  </si>
+  <si>
+    <t>funciones como valores y funciones lambdas</t>
+  </si>
+  <si>
+    <t>Clase 4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1T7PVqkyMQI0YpYhC8Zp-HI3erKcnlAsf/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Diferentes tipos de comunicacion cliente servidor</t>
+  </si>
+  <si>
+    <t>Ejemplo en diagrama de flujo</t>
+  </si>
+  <si>
+    <t>Diagrama de secuencia</t>
+  </si>
+  <si>
+    <t>Que es un socket, que es un websocket y ejemplo en rofex</t>
+  </si>
+  <si>
+    <t>Ejemplo de actualizacion de precios en excel</t>
+  </si>
+  <si>
+    <t>cliente pyRofex</t>
+  </si>
+  <si>
+    <t>protocolo FIX</t>
+  </si>
+  <si>
+    <t>Intro objetos, clases y herencia</t>
+  </si>
+  <si>
+    <t>consulta sobre tipo de retorno en funciones</t>
+  </si>
   <si>
     <t>Clase 5</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1oTrDitiEPWP9Y-0sQJx_N4zLUK2_dhDb/view?usp=sharing</t>
+  </si>
+  <si>
     <t>into Machine learning</t>
   </si>
   <si>
@@ -41,23 +194,285 @@
   </si>
   <si>
     <t>Algoritmos de regresion y de clasificacion</t>
+  </si>
+  <si>
+    <t>Clase 6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1M-whj7ocI41GUyW4ZRl9dCcm09MoUXkJ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Ensayo de pre-sensabilidad</t>
+  </si>
+  <si>
+    <t>Montecarlo con statsmodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mancha gaussiana </t>
+  </si>
+  <si>
+    <t>Analisis de los resultados top</t>
+  </si>
+  <si>
+    <t>Ensayo de pre-portabilidad</t>
+  </si>
+  <si>
+    <t>Overfitting y underfitting</t>
+  </si>
+  <si>
+    <t>Arbol de decision</t>
+  </si>
+  <si>
+    <t>Preparado de datos</t>
+  </si>
+  <si>
+    <t>Separamos los datos del entrenamiento</t>
+  </si>
+  <si>
+    <t>importamos el modelo</t>
+  </si>
+  <si>
+    <t>Matriz de confusión</t>
+  </si>
+  <si>
+    <t>Verificacion manual</t>
+  </si>
+  <si>
+    <t>vemos prediccion de algun valor</t>
+  </si>
+  <si>
+    <t>Graficamos el modelo</t>
+  </si>
+  <si>
+    <t>Overfiteamos</t>
+  </si>
+  <si>
+    <t>Clase 7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XRMmiv2C8v38cVTYq51WqaQrjA91beFZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Charla de tecnologias en gral y aplicacion</t>
+  </si>
+  <si>
+    <t>Aclaracion y correccion sobre matriz de confusión y forward</t>
+  </si>
+  <si>
+    <t>repaso de serializacion</t>
+  </si>
+  <si>
+    <t>Regresion logistica</t>
+  </si>
+  <si>
+    <t>Ejemplo con SKlearn</t>
+  </si>
+  <si>
+    <t>Vector de Soporte (SVM)</t>
+  </si>
+  <si>
+    <t>Bosques aleatorios</t>
+  </si>
+  <si>
+    <t>lineamientos del tp</t>
+  </si>
+  <si>
+    <t>Clase 8</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_UPG7hSS7pADdUyF2D3HcpRh7uMQt3ek/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Esquema teorico</t>
+  </si>
+  <si>
+    <t>Modelado del dataset</t>
+  </si>
+  <si>
+    <t>clusterizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cluster jerarquico </t>
+  </si>
+  <si>
+    <t>Distancias entre diferentes geometrias</t>
+  </si>
+  <si>
+    <t>Dendogramas</t>
+  </si>
+  <si>
+    <t>Del dendograma a los clusters</t>
+  </si>
+  <si>
+    <t>Aplicacion real de clustering jerarquico</t>
+  </si>
+  <si>
+    <t>Muestra tp Leo Sliwinsky</t>
+  </si>
+  <si>
+    <t>Clase 9</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19_nONrnjAPYVkYwFE8JKBjKIIn_RsDdQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Mini repaso clase pasada</t>
+  </si>
+  <si>
+    <t>Kmeans</t>
+  </si>
+  <si>
+    <t>Metodo del codo</t>
+  </si>
+  <si>
+    <t>Metodo de la silueta</t>
+  </si>
+  <si>
+    <t>Formula taylor made</t>
+  </si>
+  <si>
+    <t>Donde falla kmeans</t>
+  </si>
+  <si>
+    <t>Donde mas?</t>
+  </si>
+  <si>
+    <t>Mezcla Gaussiana y medias lunas</t>
+  </si>
+  <si>
+    <t>DBscan</t>
+  </si>
+  <si>
+    <t>MeanShift</t>
+  </si>
+  <si>
+    <t>Aplicacion Practica</t>
+  </si>
+  <si>
+    <t>Clase 10</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qY0KtgLjTYFTEOS1bP50_T3SNke1ceRw/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Comienzo de clase y puesta en escena del bot</t>
+  </si>
+  <si>
+    <t>Objetivos del bot</t>
+  </si>
+  <si>
+    <t>Diagrama de flujo</t>
+  </si>
+  <si>
+    <t>importar librerias y claves</t>
+  </si>
+  <si>
+    <t>Bajamos data historica</t>
+  </si>
+  <si>
+    <t>Serializado de informacion.</t>
+  </si>
+  <si>
+    <t>Generamos inficadores para ML</t>
+  </si>
+  <si>
+    <t>primer muestra del bot</t>
+  </si>
+  <si>
+    <t>Entrenamos el modelo</t>
+  </si>
+  <si>
+    <t>Levantamos el modelo entrenado</t>
+  </si>
+  <si>
+    <t>Calculo de la esperanza matematica</t>
+  </si>
+  <si>
+    <t>Funciones para el bot ML y Prediccion</t>
+  </si>
+  <si>
+    <t>Funciones de ruteo</t>
+  </si>
+  <si>
+    <t>Funciones del demonio</t>
+  </si>
+  <si>
+    <t>Pruebo las funciones</t>
+  </si>
+  <si>
+    <t>Daemon</t>
+  </si>
+  <si>
+    <t>Funcion principal</t>
+  </si>
+  <si>
+    <t>Clase 11</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_brcEUbBD5L-rmbOpp7jl5VCPwHl0zyY/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Comienzo de clase y repaso rapido</t>
+  </si>
+  <si>
+    <t>Funciones previas</t>
+  </si>
+  <si>
+    <t>Funciones ML y data USA</t>
+  </si>
+  <si>
+    <t>Funciones estado sin BBDD</t>
+  </si>
+  <si>
+    <t>Funciones BBDD</t>
+  </si>
+  <si>
+    <t>Bot</t>
+  </si>
+  <si>
+    <t>Estadistica - Regimenes de Sigma</t>
+  </si>
+  <si>
+    <t>sigma de switching general</t>
+  </si>
+  <si>
+    <t>Test de normalidad</t>
+  </si>
+  <si>
+    <t>Kolmogorov Smirnov</t>
+  </si>
+  <si>
+    <t>Fitting</t>
+  </si>
+  <si>
+    <t>Otros tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clase 12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPS </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -73,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -81,6 +496,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -302,97 +723,1136 @@
     <col customWidth="1" min="3" max="3" width="49.29"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
+      <c r="B21" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="2">
+      <c r="B22" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="3">
+        <v>1.11</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="1">
+        <v>1.13</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="1">
+        <v>2.29</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="1">
+        <v>1.12</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="3">
+        <v>1.54</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="3">
+        <v>2.3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="1">
         <v>0.05</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="2">
+      <c r="C54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="1">
         <v>0.12</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="2">
+      <c r="C55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="1">
         <v>0.12</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="2">
+      <c r="C56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="1">
         <v>0.2</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="2">
+      <c r="C57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="1">
         <v>0.23</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="2">
+      <c r="C58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="1">
         <v>0.26</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="2">
+      <c r="C59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="1">
         <v>0.32</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="2">
+      <c r="C60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="1">
         <v>0.38</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="2">
+      <c r="C61" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="1">
         <v>0.4</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="2">
+      <c r="C62" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="1">
         <v>0.59</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="2">
+      <c r="C63" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="1">
         <v>1.08</v>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="1">
+        <v>0.57</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="1">
+        <v>1.13</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="1">
+        <v>1.15</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="1">
+        <v>2.05</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="1">
+        <v>2.24</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="1">
+        <v>1.13</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="1">
+        <v>2.26</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="4">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" s="1">
+        <v>2.26</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" s="1">
+        <v>0.56</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" s="1">
+        <v>0.57</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" s="1">
+        <v>1.13</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" s="1">
+        <v>2.03</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" s="1">
+        <v>0.28</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" s="1">
+        <v>1.11</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" s="1">
+        <v>2.03</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" s="1">
+        <v>2.28</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C1"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="C13"/>
+    <hyperlink r:id="rId4" ref="C26"/>
+    <hyperlink r:id="rId5" ref="C41"/>
+    <hyperlink r:id="rId6" ref="C53"/>
+    <hyperlink r:id="rId7" ref="C66"/>
+    <hyperlink r:id="rId8" ref="C83"/>
+    <hyperlink r:id="rId9" ref="C93"/>
+    <hyperlink r:id="rId10" ref="C104"/>
+    <hyperlink r:id="rId11" ref="C118"/>
+    <hyperlink r:id="rId12" ref="C137"/>
+  </hyperlinks>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>